--- a/Таблицы ко 2 лабе по инфе.xlsx
+++ b/Таблицы ко 2 лабе по инфе.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <r>
       <t>2</t>
@@ -66,6 +67,42 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>i6</t>
+  </si>
+  <si>
+    <t>i7</t>
+  </si>
+  <si>
+    <t>i8</t>
+  </si>
+  <si>
+    <t>i9</t>
+  </si>
+  <si>
+    <t>i10</t>
+  </si>
+  <si>
+    <t>i11</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -101,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +165,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,12 +209,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Вывод" xfId="1" builtinId="21"/>
@@ -449,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,31 +598,31 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <f>C4</f>
+        <f t="shared" ref="C5:I5" si="0">C4</f>
         <v>1</v>
       </c>
       <c r="D5" s="3">
-        <f>D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E5" s="3">
-        <f>E4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <f>F4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <f>G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <f>H4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="3">
-        <f>I4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J5" s="1">
@@ -611,6 +665,336 @@
       <c r="J6" s="1">
         <f>MOD(F6+G6+H6+I6,2)</f>
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+      <c r="G2" s="5">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>6</v>
+      </c>
+      <c r="I2" s="5">
+        <v>7</v>
+      </c>
+      <c r="J2" s="5">
+        <v>8</v>
+      </c>
+      <c r="K2" s="5">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5">
+        <v>10</v>
+      </c>
+      <c r="M2" s="5">
+        <v>11</v>
+      </c>
+      <c r="N2" s="5">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5">
+        <v>13</v>
+      </c>
+      <c r="P2" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>15</v>
+      </c>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="5">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Таблицы ко 2 лабе по инфе.xlsx
+++ b/Таблицы ко 2 лабе по инфе.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\docs_for_labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\docs_for_labs\docs_for_labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <r>
       <t>2</t>
@@ -91,18 +91,6 @@
   </si>
   <si>
     <t>i11</t>
-  </si>
-  <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S3</t>
   </si>
 </sst>
 </file>
@@ -507,9 +495,9 @@
       <selection activeCell="B2" sqref="B2:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
       <c r="C2" s="1">
         <v>1</v>
@@ -534,7 +522,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="2:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -593,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -630,7 +618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -677,13 +665,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:R7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="5"/>
       <c r="C2" s="5">
         <v>1</v>
@@ -732,7 +720,7 @@
       </c>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="2:18" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="16.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -785,216 +773,220 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <f>MOD(C4+E4+G4+I4+K4+M4+O4+Q4,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>1</v>
+      </c>
+      <c r="P5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>0</v>
+      </c>
+      <c r="R5" s="5">
+        <f>MOD(D5+E5+H5+I5+L5+M5+P5+Q5,2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <f>MOD(F6+G6+H6+I6+N6+O6+P6+Q6,2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>19</v>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>1</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="5">
+        <f>MOD(SUM(J7:Q7),2)</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
